--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\#Year 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -1687,7 +1682,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1803,7 +1798,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1838,7 +1833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2015,7 +2010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2023,11 +2018,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2519,13 +2517,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2902,21 +2903,25 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -3647,6 +3652,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3852,6 +3858,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4865,5 +4872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>